--- a/TimeSheet/template/temp.xlsx
+++ b/TimeSheet/template/temp.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Табель" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CalendarDaysCount">Табель!$G$12</definedName>
+    <definedName name="CalendarDaysCount">Табель!$H$12</definedName>
     <definedName name="CommitDate">Табель!$B$4</definedName>
-    <definedName name="DepartmentName">Табель!$D$11</definedName>
-    <definedName name="LPU_Name">Табель!$D$10</definedName>
+    <definedName name="DepartmentName">Табель!$E$11</definedName>
+    <definedName name="LPU_Name">Табель!$E$10</definedName>
     <definedName name="MainDoc">Табель!$C$3</definedName>
     <definedName name="MainDoc_LPUName">Табель!$B$2</definedName>
-    <definedName name="TimeSheetMonth">Табель!$H$8</definedName>
-    <definedName name="TimeSheetYear">Табель!$L$8</definedName>
+    <definedName name="TimeSheetMonth">Табель!$I$8</definedName>
+    <definedName name="TimeSheetYear">Табель!$M$8</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve">Отработано </t>
-  </si>
-  <si>
-    <t>Вид оплаты</t>
   </si>
   <si>
     <t>№ п/п</t>
@@ -347,6 +344,9 @@
       <t>Я</t>
     </r>
   </si>
+  <si>
+    <t>Ставка</t>
+  </si>
 </sst>
 </file>
 
@@ -355,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -387,12 +387,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
@@ -417,13 +411,6 @@
       <b/>
       <u/>
       <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -488,7 +475,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -653,19 +640,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -908,15 +882,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -930,26 +1059,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -957,64 +1080,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1024,196 +1133,260 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1517,46 +1690,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DL49"/>
+  <dimension ref="A1:DM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="1" customWidth="1"/>
-    <col min="4" max="19" width="3.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" customWidth="1"/>
-    <col min="23" max="25" width="9.140625" style="1"/>
-    <col min="26" max="26" width="1.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="0.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="33" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="1.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="35" max="46" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="6.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="48" max="58" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="1.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="60" max="80" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="1.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="82" max="91" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="1" style="1" hidden="1" customWidth="1"/>
-    <col min="93" max="101" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="102" max="102" width="9.140625" style="1"/>
-    <col min="103" max="104" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="105" max="105" width="0.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="8.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="107" max="109" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="0.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="111" max="116" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="117" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="6" style="1" customWidth="1"/>
+    <col min="5" max="20" width="3.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="4.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="9.140625" style="1"/>
+    <col min="27" max="27" width="1.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="0.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="34" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="1.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="36" max="47" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="6.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="49" max="59" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="1.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="61" max="81" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="1.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="83" max="92" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="1" style="1" hidden="1" customWidth="1"/>
+    <col min="94" max="102" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="9.140625" style="1"/>
+    <col min="104" max="105" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="0.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="107" max="107" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="108" max="110" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="111" max="111" width="0.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="112" max="117" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="118" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
-        <v>25</v>
+      <c r="B1" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>0</v>
@@ -1564,7 +1739,7 @@
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>1</v>
@@ -1572,175 +1747,177 @@
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="Y3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="4"/>
+    </row>
+    <row r="5" spans="2:25" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="L5" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="Y6" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="X7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>504421</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="M8" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="90"/>
+      <c r="X8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="20"/>
+    </row>
+    <row r="9" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="X9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="55">
+        <v>1910810</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="24"/>
+    </row>
+    <row r="11" spans="2:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="35">
+        <v>23</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="37"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="X12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="4"/>
-    </row>
-    <row r="5" spans="2:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="K5" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Y6" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="X7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="22">
-        <v>504421</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="L8" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="86"/>
-      <c r="X8" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y8" s="22"/>
-    </row>
-    <row r="9" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="X9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="69">
-        <v>1910810</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="26"/>
-    </row>
-    <row r="11" spans="2:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="43">
-        <v>23</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="45"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="X12" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y12" s="26"/>
+      <c r="Y12" s="24"/>
     </row>
     <row r="13" spans="2:25" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="30"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="2:25" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="90"/>
+      <c r="D14" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="93"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
@@ -1748,7 +1925,7 @@
       <c r="U14" s="12"/>
       <c r="V14" s="13"/>
       <c r="W14" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X14" s="12"/>
       <c r="Y14" s="13"/>
@@ -1757,7 +1934,7 @@
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1768,15 +1945,15 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="83" t="s">
+      <c r="N15" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="29" t="s">
         <v>31</v>
-      </c>
-      <c r="O15" s="31" t="s">
-        <v>32</v>
       </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -1784,7 +1961,7 @@
       <c r="U15" s="5"/>
       <c r="V15" s="6"/>
       <c r="W15" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="6"/>
@@ -1793,7 +1970,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1804,15 +1981,15 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="31" t="s">
-        <v>28</v>
+      <c r="N16" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -1820,16 +1997,16 @@
       <c r="U16" s="5"/>
       <c r="V16" s="6"/>
       <c r="W16" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="1:25" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:103" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1840,15 +2017,15 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="31" t="s">
-        <v>35</v>
+      <c r="N17" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -1856,16 +2033,16 @@
       <c r="U17" s="5"/>
       <c r="V17" s="6"/>
       <c r="W17" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X17" s="5"/>
       <c r="Y17" s="6"/>
     </row>
-    <row r="18" spans="1:25" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:103" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1876,15 +2053,15 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" s="31" t="s">
-        <v>37</v>
+      <c r="N18" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -1895,11 +2072,11 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="1:25" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:103" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1910,15 +2087,15 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>38</v>
+      <c r="N19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -1929,11 +2106,11 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="6"/>
     </row>
-    <row r="20" spans="1:25" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:103" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1944,15 +2121,15 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="O20" s="32" t="s">
-        <v>29</v>
+      <c r="N20" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -1963,610 +2140,702 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D21" s="33"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="8"/>
-    </row>
-    <row r="22" spans="1:25" s="36" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="102" t="s">
+    <row r="21" spans="1:103" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="26"/>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="26"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="26"/>
+      <c r="AY21" s="26"/>
+      <c r="AZ21" s="26"/>
+      <c r="BA21" s="26"/>
+      <c r="BB21" s="26"/>
+      <c r="BC21" s="26"/>
+      <c r="BD21" s="26"/>
+      <c r="BE21" s="26"/>
+      <c r="BF21" s="26"/>
+      <c r="BG21" s="26"/>
+      <c r="BH21" s="26"/>
+      <c r="BI21" s="26"/>
+      <c r="BJ21" s="26"/>
+      <c r="BK21" s="26"/>
+      <c r="BL21" s="26"/>
+      <c r="BM21" s="26"/>
+      <c r="BN21" s="26"/>
+      <c r="BO21" s="26"/>
+      <c r="BP21" s="26"/>
+      <c r="BQ21" s="26"/>
+      <c r="BR21" s="26"/>
+      <c r="BS21" s="26"/>
+      <c r="BT21" s="26"/>
+      <c r="BU21" s="26"/>
+      <c r="BV21" s="26"/>
+      <c r="BW21" s="26"/>
+      <c r="BX21" s="26"/>
+      <c r="BY21" s="26"/>
+      <c r="BZ21" s="26"/>
+      <c r="CA21" s="26"/>
+      <c r="CB21" s="26"/>
+      <c r="CC21" s="26"/>
+      <c r="CD21" s="26"/>
+      <c r="CE21" s="26"/>
+      <c r="CF21" s="26"/>
+      <c r="CG21" s="26"/>
+      <c r="CH21" s="26"/>
+      <c r="CI21" s="26"/>
+      <c r="CJ21" s="26"/>
+      <c r="CK21" s="26"/>
+      <c r="CL21" s="26"/>
+      <c r="CM21" s="26"/>
+      <c r="CN21" s="26"/>
+      <c r="CO21" s="26"/>
+      <c r="CP21" s="26"/>
+      <c r="CQ21" s="26"/>
+      <c r="CR21" s="26"/>
+      <c r="CS21" s="26"/>
+      <c r="CT21" s="26"/>
+      <c r="CU21" s="26"/>
+      <c r="CV21" s="26"/>
+      <c r="CW21" s="26"/>
+      <c r="CX21" s="26"/>
+      <c r="CY21" s="26"/>
+    </row>
+    <row r="22" spans="1:103" s="31" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="94"/>
+    </row>
+    <row r="23" spans="1:103" s="31" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="103"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="131">
+        <v>1</v>
+      </c>
+      <c r="F23" s="68">
+        <v>2</v>
+      </c>
+      <c r="G23" s="68">
+        <v>3</v>
+      </c>
+      <c r="H23" s="68">
+        <v>4</v>
+      </c>
+      <c r="I23" s="68">
+        <v>5</v>
+      </c>
+      <c r="J23" s="68">
+        <v>6</v>
+      </c>
+      <c r="K23" s="68">
+        <v>7</v>
+      </c>
+      <c r="L23" s="68">
+        <v>8</v>
+      </c>
+      <c r="M23" s="68">
+        <v>9</v>
+      </c>
+      <c r="N23" s="68">
         <v>10</v>
       </c>
-      <c r="B22" s="102" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="108"/>
-      <c r="X22" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y22" s="110"/>
-    </row>
-    <row r="23" spans="1:25" s="36" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="102"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="87">
-        <v>1</v>
-      </c>
-      <c r="E23" s="87">
-        <v>2</v>
-      </c>
-      <c r="F23" s="87">
+      <c r="O23" s="68">
+        <v>11</v>
+      </c>
+      <c r="P23" s="68">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="68">
+        <v>13</v>
+      </c>
+      <c r="R23" s="68">
+        <v>14</v>
+      </c>
+      <c r="S23" s="68">
+        <v>15</v>
+      </c>
+      <c r="T23" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="V23" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="87">
-        <v>4</v>
-      </c>
-      <c r="H23" s="87">
-        <v>5</v>
-      </c>
-      <c r="I23" s="87">
-        <v>6</v>
-      </c>
-      <c r="J23" s="87">
-        <v>7</v>
-      </c>
-      <c r="K23" s="87">
-        <v>8</v>
-      </c>
-      <c r="L23" s="87">
-        <v>9</v>
-      </c>
-      <c r="M23" s="87">
+      <c r="W23" s="75"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+    </row>
+    <row r="24" spans="1:103" s="31" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="103"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+    </row>
+    <row r="25" spans="1:103" s="31" customFormat="1" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="103"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="127"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="105"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+    </row>
+    <row r="26" spans="1:103" s="31" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="103"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="127"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+    </row>
+    <row r="27" spans="1:103" s="31" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="103"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="131">
+        <v>16</v>
+      </c>
+      <c r="F27" s="68">
+        <v>17</v>
+      </c>
+      <c r="G27" s="68">
+        <v>18</v>
+      </c>
+      <c r="H27" s="68">
+        <v>19</v>
+      </c>
+      <c r="I27" s="68">
+        <v>20</v>
+      </c>
+      <c r="J27" s="68">
+        <v>21</v>
+      </c>
+      <c r="K27" s="68">
+        <v>22</v>
+      </c>
+      <c r="L27" s="68">
+        <v>23</v>
+      </c>
+      <c r="M27" s="68">
+        <v>24</v>
+      </c>
+      <c r="N27" s="68">
+        <v>25</v>
+      </c>
+      <c r="O27" s="68">
+        <v>26</v>
+      </c>
+      <c r="P27" s="68">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="68">
+        <v>28</v>
+      </c>
+      <c r="R27" s="68">
+        <v>29</v>
+      </c>
+      <c r="S27" s="68">
+        <v>30</v>
+      </c>
+      <c r="T27" s="132">
+        <v>31</v>
+      </c>
+      <c r="U27" s="128"/>
+      <c r="V27" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="N23" s="87">
+      <c r="W27" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="O23" s="87">
+      <c r="X27" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="P23" s="87">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="87">
-        <v>14</v>
-      </c>
-      <c r="R23" s="87">
-        <v>15</v>
-      </c>
-      <c r="S23" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="U23" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="V23" s="120"/>
-      <c r="W23" s="121"/>
-      <c r="X23" s="111"/>
-      <c r="Y23" s="111"/>
-    </row>
-    <row r="24" spans="1:25" s="36" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="102"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="123"/>
-      <c r="W24" s="124"/>
-      <c r="X24" s="111"/>
-      <c r="Y24" s="111"/>
-    </row>
-    <row r="25" spans="1:25" s="36" customFormat="1" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="102"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="111"/>
-      <c r="Y25" s="111"/>
-    </row>
-    <row r="26" spans="1:25" s="36" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="102"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="111"/>
-      <c r="Y26" s="111"/>
-    </row>
-    <row r="27" spans="1:25" s="36" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="102"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="87">
-        <v>16</v>
-      </c>
-      <c r="E27" s="87">
-        <v>17</v>
-      </c>
-      <c r="F27" s="87">
-        <v>18</v>
-      </c>
-      <c r="G27" s="87">
-        <v>19</v>
-      </c>
-      <c r="H27" s="87">
-        <v>20</v>
-      </c>
-      <c r="I27" s="87">
-        <v>21</v>
-      </c>
-      <c r="J27" s="87">
-        <v>22</v>
-      </c>
-      <c r="K27" s="87">
-        <v>23</v>
-      </c>
-      <c r="L27" s="87">
-        <v>24</v>
-      </c>
-      <c r="M27" s="87">
-        <v>25</v>
-      </c>
-      <c r="N27" s="87">
-        <v>26</v>
-      </c>
-      <c r="O27" s="87">
-        <v>27</v>
-      </c>
-      <c r="P27" s="87">
-        <v>28</v>
-      </c>
-      <c r="Q27" s="87">
-        <v>29</v>
-      </c>
-      <c r="R27" s="87">
-        <v>30</v>
-      </c>
-      <c r="S27" s="87">
-        <v>31</v>
-      </c>
-      <c r="T27" s="129"/>
-      <c r="U27" s="113" t="s">
-        <v>11</v>
-      </c>
-      <c r="V27" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="W27" s="117" t="s">
-        <v>13</v>
-      </c>
-      <c r="X27" s="111"/>
-      <c r="Y27" s="111"/>
-    </row>
-    <row r="28" spans="1:25" s="2" customFormat="1" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="103"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="129"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="116"/>
-      <c r="W28" s="118"/>
-      <c r="X28" s="112"/>
-      <c r="Y28" s="112"/>
-    </row>
-    <row r="29" spans="1:25" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+    </row>
+    <row r="28" spans="1:103" s="2" customFormat="1" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="108"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+    </row>
+    <row r="29" spans="1:103" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>1</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="125">
         <v>2</v>
       </c>
       <c r="C29" s="16">
         <v>3</v>
       </c>
-      <c r="D29" s="101">
+      <c r="D29" s="125">
         <v>4</v>
       </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="16">
+      <c r="E29" s="135">
         <v>5</v>
       </c>
-      <c r="U29" s="16">
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="136"/>
+      <c r="U29" s="129">
         <v>6</v>
       </c>
-      <c r="V29" s="37">
+      <c r="V29" s="16">
         <v>7</v>
       </c>
-      <c r="W29" s="37">
+      <c r="W29" s="32">
         <v>8</v>
       </c>
-      <c r="X29" s="37">
+      <c r="X29" s="33">
         <v>9</v>
       </c>
-      <c r="Y29" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-    </row>
-    <row r="31" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="71" t="s">
+      <c r="Y29" s="96"/>
+      <c r="Z29" s="96"/>
+    </row>
+    <row r="30" spans="1:103" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+    </row>
+    <row r="31" spans="1:103" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="K31" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-    </row>
-    <row r="32" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-    </row>
-    <row r="33" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="L33" s="60"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="60"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="60"/>
-      <c r="X33" s="60"/>
-      <c r="Y33" s="60"/>
-    </row>
-    <row r="34" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="60"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" s="91"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T35" s="52"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="54"/>
-    </row>
-    <row r="36" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="T36" s="75"/>
-      <c r="U36" s="76"/>
-      <c r="V36" s="77"/>
-      <c r="W36" s="78"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="55"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A37" s="92"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="77"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="55"/>
-    </row>
-    <row r="38" spans="1:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="80"/>
-      <c r="V38" s="81"/>
-      <c r="W38" s="82"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="56"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+    </row>
+    <row r="32" spans="1:103" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+    </row>
+    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="48"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+    </row>
+    <row r="34" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="80"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="U35" s="44"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="116"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+    </row>
+    <row r="36" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="81"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="U36" s="60"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="117"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="81"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="61"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="117"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+    </row>
+    <row r="38" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="82"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="120"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
@@ -2587,213 +2856,138 @@
       <c r="V39"/>
       <c r="W39"/>
       <c r="X39"/>
-      <c r="Y39"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="X40"/>
+      <c r="Y39" s="97"/>
+      <c r="Z39" s="97"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
       <c r="Y40"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="X41"/>
+      <c r="Z40"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
       <c r="Y41"/>
-    </row>
-    <row r="42" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="X42"/>
-      <c r="Y42"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43"/>
+      <c r="Z41"/>
+    </row>
+    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
       <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43"/>
-      <c r="X43"/>
-      <c r="Y43"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
       <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
       <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45"/>
-      <c r="X45"/>
-      <c r="Y45"/>
-    </row>
-    <row r="46" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="48"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="18"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="48"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="50"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="50"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="50"/>
+    </row>
+    <row r="46" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="40"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="34"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="40"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A48" s="40"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="40"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
+  <mergeCells count="54">
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="T23:T26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="P23:P26"/>
+    <mergeCell ref="Q23:Q26"/>
+    <mergeCell ref="R23:R26"/>
+    <mergeCell ref="S23:S26"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="L23:L26"/>
     <mergeCell ref="M23:M26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="X23:X28"/>
-    <mergeCell ref="Y23:Y28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="U23:W26"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T23:T28"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="C35:C38"/>
-    <mergeCell ref="Q27:Q28"/>
     <mergeCell ref="R27:R28"/>
-    <mergeCell ref="D29:S29"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="E29:T29"/>
     <mergeCell ref="A22:A28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="T27:T28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
     <mergeCell ref="B22:B28"/>
     <mergeCell ref="C22:C28"/>
-    <mergeCell ref="D22:S22"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="S23:S26"/>
-    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="E22:T22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Y28"/>
+    <mergeCell ref="Z23:Z28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="V23:X26"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:U28"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="E23:E26"/>
     <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="P23:P26"/>
-    <mergeCell ref="Q23:Q26"/>
-    <mergeCell ref="R23:R26"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Y1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.11811023622047245" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/TimeSheet/template/temp.xlsx
+++ b/TimeSheet/template/temp.xlsx
@@ -11,6 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="CalendarDaysCount">Табель!$H$12</definedName>
+    <definedName name="CalendarDayString">Табель!$I$12</definedName>
     <definedName name="CommitDate">Табель!$B$4</definedName>
     <definedName name="DepartmentName">Табель!$E$11</definedName>
     <definedName name="LPU_Name">Табель!$E$10</definedName>
@@ -475,7 +476,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -907,19 +908,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1004,35 +992,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1184,168 +1170,180 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1355,38 +1353,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1692,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1813,15 +1799,15 @@
       <c r="H8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="89" t="s">
+      <c r="I8" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="M8" s="90" t="s">
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="M8" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="90"/>
+      <c r="N8" s="81"/>
       <c r="X8" s="21" t="s">
         <v>15</v>
       </c>
@@ -1901,20 +1887,20 @@
         <v>26</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="93"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="86"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="12" t="s">
         <v>38</v>
@@ -2152,7 +2138,7 @@
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
-      <c r="P21" s="98"/>
+      <c r="P21" s="70"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
@@ -2242,319 +2228,319 @@
       <c r="CY21" s="26"/>
     </row>
     <row r="22" spans="1:103" s="31" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="137" t="s">
+      <c r="B22" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="121" t="s">
+      <c r="D22" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="130" t="s">
+      <c r="E22" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="101" t="s">
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="101"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="112"/>
+      <c r="Y22" s="113"/>
+      <c r="Z22" s="113"/>
     </row>
     <row r="23" spans="1:103" s="31" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="103"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="131">
+      <c r="A23" s="101"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="133">
         <v>1</v>
       </c>
-      <c r="F23" s="68">
+      <c r="F23" s="83">
         <v>2</v>
       </c>
-      <c r="G23" s="68">
+      <c r="G23" s="83">
         <v>3</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="83">
         <v>4</v>
       </c>
-      <c r="I23" s="68">
+      <c r="I23" s="83">
         <v>5</v>
       </c>
-      <c r="J23" s="68">
+      <c r="J23" s="83">
         <v>6</v>
       </c>
-      <c r="K23" s="68">
+      <c r="K23" s="83">
         <v>7</v>
       </c>
-      <c r="L23" s="68">
+      <c r="L23" s="83">
         <v>8</v>
       </c>
-      <c r="M23" s="68">
+      <c r="M23" s="83">
         <v>9</v>
       </c>
-      <c r="N23" s="68">
+      <c r="N23" s="83">
         <v>10</v>
       </c>
-      <c r="O23" s="68">
+      <c r="O23" s="83">
         <v>11</v>
       </c>
-      <c r="P23" s="68">
+      <c r="P23" s="83">
         <v>12</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="83">
         <v>13</v>
       </c>
-      <c r="R23" s="68">
+      <c r="R23" s="83">
         <v>14</v>
       </c>
-      <c r="S23" s="68">
+      <c r="S23" s="83">
         <v>15</v>
       </c>
-      <c r="T23" s="132" t="s">
+      <c r="T23" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="U23" s="126" t="s">
+      <c r="U23" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="V23" s="74" t="s">
+      <c r="V23" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="W23" s="75"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
+      <c r="W23" s="122"/>
+      <c r="X23" s="123"/>
+      <c r="Y23" s="114"/>
+      <c r="Z23" s="114"/>
     </row>
     <row r="24" spans="1:103" s="31" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="103"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="76"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="131"/>
+      <c r="V24" s="124"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="126"/>
+      <c r="Y24" s="114"/>
+      <c r="Z24" s="114"/>
     </row>
     <row r="25" spans="1:103" s="31" customFormat="1" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="103"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="127"/>
-      <c r="V25" s="76"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="105"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="131"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="126"/>
+      <c r="Y25" s="114"/>
+      <c r="Z25" s="114"/>
     </row>
     <row r="26" spans="1:103" s="31" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="103"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
+      <c r="A26" s="101"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="131"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="129"/>
+      <c r="Y26" s="114"/>
+      <c r="Z26" s="114"/>
     </row>
     <row r="27" spans="1:103" s="31" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="103"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="131">
+      <c r="A27" s="101"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="133">
         <v>16</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="83">
         <v>17</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G27" s="83">
         <v>18</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="83">
         <v>19</v>
       </c>
-      <c r="I27" s="68">
+      <c r="I27" s="83">
         <v>20</v>
       </c>
-      <c r="J27" s="68">
+      <c r="J27" s="83">
         <v>21</v>
       </c>
-      <c r="K27" s="68">
+      <c r="K27" s="83">
         <v>22</v>
       </c>
-      <c r="L27" s="68">
+      <c r="L27" s="83">
         <v>23</v>
       </c>
-      <c r="M27" s="68">
+      <c r="M27" s="83">
         <v>24</v>
       </c>
-      <c r="N27" s="68">
+      <c r="N27" s="83">
         <v>25</v>
       </c>
-      <c r="O27" s="68">
+      <c r="O27" s="83">
         <v>26</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="83">
         <v>27</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="83">
         <v>28</v>
       </c>
-      <c r="R27" s="68">
+      <c r="R27" s="83">
         <v>29</v>
       </c>
-      <c r="S27" s="68">
+      <c r="S27" s="83">
         <v>30</v>
       </c>
-      <c r="T27" s="132">
+      <c r="T27" s="82">
         <v>31</v>
       </c>
-      <c r="U27" s="128"/>
-      <c r="V27" s="70" t="s">
+      <c r="U27" s="132"/>
+      <c r="V27" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="W27" s="72" t="s">
+      <c r="W27" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="X27" s="107" t="s">
+      <c r="X27" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-    </row>
-    <row r="28" spans="1:103" s="2" customFormat="1" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="108"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="109"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
+      <c r="Y27" s="114"/>
+      <c r="Z27" s="114"/>
+    </row>
+    <row r="28" spans="1:103" s="2" customFormat="1" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="102"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="132"/>
+      <c r="V28" s="116"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="120"/>
+      <c r="Y28" s="114"/>
+      <c r="Z28" s="114"/>
     </row>
     <row r="29" spans="1:103" s="17" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>1</v>
       </c>
-      <c r="B29" s="125">
+      <c r="B29" s="75">
         <v>2</v>
       </c>
       <c r="C29" s="16">
         <v>3</v>
       </c>
-      <c r="D29" s="125">
+      <c r="D29" s="75">
         <v>4</v>
       </c>
-      <c r="E29" s="135">
+      <c r="E29" s="97">
         <v>5</v>
       </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="136"/>
-      <c r="U29" s="129">
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="76">
         <v>6</v>
       </c>
       <c r="V29" s="16">
@@ -2566,8 +2552,8 @@
       <c r="X29" s="33">
         <v>9</v>
       </c>
-      <c r="Y29" s="96"/>
-      <c r="Z29" s="96"/>
+      <c r="Y29" s="68"/>
+      <c r="Z29" s="68"/>
     </row>
     <row r="30" spans="1:103" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
@@ -2716,11 +2702,11 @@
       <c r="Z34" s="47"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="80"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="111"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="138"/>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
@@ -2741,16 +2727,16 @@
       <c r="U35" s="44"/>
       <c r="V35" s="58"/>
       <c r="W35" s="59"/>
-      <c r="X35" s="116"/>
+      <c r="X35" s="71"/>
       <c r="Y35" s="26"/>
       <c r="Z35" s="26"/>
     </row>
     <row r="36" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="112"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="139"/>
       <c r="F36" s="53"/>
       <c r="G36" s="53"/>
       <c r="H36" s="53"/>
@@ -2771,16 +2757,16 @@
       <c r="U36" s="60"/>
       <c r="V36" s="61"/>
       <c r="W36" s="62"/>
-      <c r="X36" s="117"/>
+      <c r="X36" s="72"/>
       <c r="Y36" s="26"/>
       <c r="Z36" s="26"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="81"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="111"/>
+      <c r="A37" s="88"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="138"/>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
@@ -2799,16 +2785,16 @@
       <c r="U37" s="38"/>
       <c r="V37" s="61"/>
       <c r="W37" s="62"/>
-      <c r="X37" s="117"/>
+      <c r="X37" s="72"/>
       <c r="Y37" s="26"/>
       <c r="Z37" s="26"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="112"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="139"/>
       <c r="F38" s="53"/>
       <c r="G38" s="53"/>
       <c r="H38" s="53"/>
@@ -2827,7 +2813,7 @@
       <c r="U38" s="63"/>
       <c r="V38" s="64"/>
       <c r="W38" s="65"/>
-      <c r="X38" s="120"/>
+      <c r="X38" s="73"/>
       <c r="Y38" s="26"/>
       <c r="Z38" s="26"/>
     </row>
@@ -2856,8 +2842,8 @@
       <c r="V39"/>
       <c r="W39"/>
       <c r="X39"/>
-      <c r="Y39" s="97"/>
-      <c r="Z39" s="97"/>
+      <c r="Y39" s="69"/>
+      <c r="Z39" s="69"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="43"/>
@@ -2929,6 +2915,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Y28"/>
+    <mergeCell ref="Z23:Z28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="V23:X26"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:U28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="E29:T29"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="E22:T22"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="M27:M28"/>
     <mergeCell ref="D22:D27"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="I8:K8"/>
@@ -2945,44 +2969,6 @@
     <mergeCell ref="R23:R26"/>
     <mergeCell ref="S23:S26"/>
     <mergeCell ref="D14:O14"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="E29:T29"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="E22:T22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y23:Y28"/>
-    <mergeCell ref="Z23:Z28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="V23:X26"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:U28"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Y1" r:id="rId1"/>
